--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_283.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_283.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g29092-d75673-Reviews-Fairfield_Inn_by_Marriott_Anaheim_Hills_Orange_County-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>298</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>315</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Orange-County-Hotels-Fairfield-Inn-By-Marriott-Anaheim-Hills-Orange-County.h27704.Hotel-Information</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_283.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_283.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1494">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1495">
   <si>
     <t>STR#</t>
   </si>
@@ -3618,6 +3618,9 @@
 The hotel looks standard, it's right on the fwy so plenty of fwy noise but I was prepared to be happy. Another conference attendee had her room on the outside corridor and was distressed with all the noise. My room was closer to the pool yet even before I got to bed problems started, the air conditioner / fan emitted a terrible stench. Really awful, since it wasn't that hot I simply turned it off and went to bed. The mattresses were new. I don't know who tests these things but they obviously they didn't have a big panel of testers. These are not the right beds for everyone.  I spent 4 hours trying to sleep on it until I gave up.  The mattress at first seemed it would be heavenly but the longer one spends on it it the more one...I expected a lot more from a Marriott hotel especially as it was newly renovated with new beds. To it's credit the hotel staff were friendly, my room and the grounds were clean, the room was a nice size, plenty of hot water, great TV, a little frig, plenty of towels and lots of plugs, a great work desk and lamps which I loved.  I was only there for one night as I had a conference in the area however my conference discount was the same as the current regular price so am not sure I saved anything.The hotel looks standard, it's right on the fwy so plenty of fwy noise but I was prepared to be happy. Another conference attendee had her room on the outside corridor and was distressed with all the noise. My room was closer to the pool yet even before I got to bed problems started, the air conditioner / fan emitted a terrible stench. Really awful, since it wasn't that hot I simply turned it off and went to bed. The mattresses were new. I don't know who tests these things but they obviously they didn't have a big panel of testers. These are not the right beds for everyone.  I spent 4 hours trying to sleep on it until I gave up.  The mattress at first seemed it would be heavenly but the longer one spends on it it the more one sinks...  heaviest part of you sinks the lowest and it makes you hot. The mattress appears to have no visible or invisible means of support for your body, not even on the edge. I did my best trying to convince myself it couldn't be that bad for just one night but the sinking cut off the circulation to my head and neck.....  very very unconformable! To make it worse, hotel guests kept roaming around screaming outside my door. I could hear every word and nasty comment in detail, this went on until about 3:30 in the morning. My friend on the other side said she could hear people snoring in the room next to her. I also heard the folks upstairs.  Really...  why don't hotels have adequate sound dampeners or sound insulation?So at 4 am with a very sore back and neck, hot, tired and weary I asked for some help.  What I received would have been hilarious if it wasn't real.  I was brought one of the most decrepit and flimsy rollaways complete with pokey springs and ripped and stained cover that I'd ever seen. A nice hotel like this and that was what they offered????   I stuffed all the fixings from the failed bed onto the roll-away and managed to get a few hours sleep.I took a hot shower (plenty of hot water!) and headed for the included breakfast. There was a nice selection of food but it was the sort of food that is better to look at than to eat. I can't tell you what the eggs actually were like since I gave up after a few forks, The cut fruit that looked so yummy was bitter and sour and I don't like surgery starchy stuff, esp not first thing in the morning. If a hotel serves breakfast shouldn't it be high quality and not industrialized pseudo food? Admittedly I was very tired and sore. When I shared my woes of the night to the desk clerk I was not offered any compensation, she couldn't understand why I didn't like the food and had nothing to say about my miserable night other than to tell me what I'd already heard about the beds being new.... ergo the 2 stars.  I'm sure the remodel and upgrades helped but this hotel can do better, a lot better!!!!!More</t>
   </si>
   <si>
+    <t>middieman</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75673-r158998773-Fairfield_Inn_by_Marriott_Anaheim_Hills_Orange_County-Anaheim_California.html</t>
   </si>
   <si>
@@ -4155,7 +4158,7 @@
     <t>My Mom &amp; I were there for my cousins wedding &amp; after a poor experience at another property up the road - we were walk-ins and very welcomed by the cheerful, helpful front desk team.  A value oriented rate and a very nice (yes, small) room with all amenities necessary.  We liked the brightness of the room too and the included breakfast was ample and perfect for us to begin our day.  And I really appreciated the newspaper.Close to lots of restaurants within walking.  Easy access, plenty of parking.And I dug the picture JR Marriott in the lobby - apparently the hotel sits on former ranch property of his.  Now I know to look for a Fairfield by Marriott for quality &amp; value.More</t>
   </si>
   <si>
-    <t>hammerdroogs</t>
+    <t>Mark R</t>
   </si>
   <si>
     <t>07/02/2018</t>
@@ -5093,7 +5096,7 @@
         <v>26300</v>
       </c>
       <c r="B2" t="n">
-        <v>146952</v>
+        <v>178312</v>
       </c>
       <c r="C2" t="s">
         <v>44</v>
@@ -5154,7 +5157,7 @@
         <v>26300</v>
       </c>
       <c r="B3" t="n">
-        <v>146953</v>
+        <v>178313</v>
       </c>
       <c r="C3" t="s">
         <v>56</v>
@@ -5223,7 +5226,7 @@
         <v>26300</v>
       </c>
       <c r="B4" t="n">
-        <v>146954</v>
+        <v>178314</v>
       </c>
       <c r="C4" t="s">
         <v>67</v>
@@ -5416,7 +5419,7 @@
         <v>26300</v>
       </c>
       <c r="B7" t="n">
-        <v>146955</v>
+        <v>178315</v>
       </c>
       <c r="C7" t="s">
         <v>91</v>
@@ -5542,7 +5545,7 @@
         <v>26300</v>
       </c>
       <c r="B9" t="n">
-        <v>146956</v>
+        <v>178316</v>
       </c>
       <c r="C9" t="s">
         <v>108</v>
@@ -5611,7 +5614,7 @@
         <v>26300</v>
       </c>
       <c r="B10" t="n">
-        <v>146957</v>
+        <v>178317</v>
       </c>
       <c r="C10" t="s">
         <v>118</v>
@@ -5739,7 +5742,7 @@
         <v>26300</v>
       </c>
       <c r="B12" t="n">
-        <v>146958</v>
+        <v>178318</v>
       </c>
       <c r="C12" t="s">
         <v>134</v>
@@ -5800,7 +5803,7 @@
         <v>26300</v>
       </c>
       <c r="B13" t="n">
-        <v>146959</v>
+        <v>178319</v>
       </c>
       <c r="C13" t="s">
         <v>142</v>
@@ -5932,7 +5935,7 @@
         <v>26300</v>
       </c>
       <c r="B15" t="n">
-        <v>146960</v>
+        <v>178320</v>
       </c>
       <c r="C15" t="s">
         <v>157</v>
@@ -6003,7 +6006,7 @@
         <v>26300</v>
       </c>
       <c r="B16" t="n">
-        <v>146961</v>
+        <v>178321</v>
       </c>
       <c r="C16" t="s">
         <v>167</v>
@@ -6074,7 +6077,7 @@
         <v>26300</v>
       </c>
       <c r="B17" t="n">
-        <v>146962</v>
+        <v>178322</v>
       </c>
       <c r="C17" t="s">
         <v>178</v>
@@ -6206,7 +6209,7 @@
         <v>26300</v>
       </c>
       <c r="B19" t="n">
-        <v>146963</v>
+        <v>178323</v>
       </c>
       <c r="C19" t="s">
         <v>191</v>
@@ -6271,7 +6274,7 @@
         <v>26300</v>
       </c>
       <c r="B20" t="n">
-        <v>146964</v>
+        <v>178324</v>
       </c>
       <c r="C20" t="s">
         <v>197</v>
@@ -6336,7 +6339,7 @@
         <v>26300</v>
       </c>
       <c r="B21" t="n">
-        <v>146965</v>
+        <v>178325</v>
       </c>
       <c r="C21" t="s">
         <v>207</v>
@@ -6403,7 +6406,7 @@
         <v>26300</v>
       </c>
       <c r="B22" t="n">
-        <v>146966</v>
+        <v>178326</v>
       </c>
       <c r="C22" t="s">
         <v>216</v>
@@ -6464,7 +6467,7 @@
         <v>26300</v>
       </c>
       <c r="B23" t="n">
-        <v>146967</v>
+        <v>178327</v>
       </c>
       <c r="C23" t="s">
         <v>222</v>
@@ -6535,7 +6538,7 @@
         <v>26300</v>
       </c>
       <c r="B24" t="n">
-        <v>146968</v>
+        <v>178328</v>
       </c>
       <c r="C24" t="s">
         <v>228</v>
@@ -6610,7 +6613,7 @@
         <v>26300</v>
       </c>
       <c r="B25" t="n">
-        <v>146969</v>
+        <v>178329</v>
       </c>
       <c r="C25" t="s">
         <v>237</v>
@@ -6681,7 +6684,7 @@
         <v>26300</v>
       </c>
       <c r="B26" t="n">
-        <v>146970</v>
+        <v>178330</v>
       </c>
       <c r="C26" t="s">
         <v>243</v>
@@ -6752,7 +6755,7 @@
         <v>26300</v>
       </c>
       <c r="B27" t="n">
-        <v>146971</v>
+        <v>178331</v>
       </c>
       <c r="C27" t="s">
         <v>252</v>
@@ -6827,7 +6830,7 @@
         <v>26300</v>
       </c>
       <c r="B28" t="n">
-        <v>146972</v>
+        <v>178332</v>
       </c>
       <c r="C28" t="s">
         <v>261</v>
@@ -6898,7 +6901,7 @@
         <v>26300</v>
       </c>
       <c r="B29" t="n">
-        <v>146973</v>
+        <v>178333</v>
       </c>
       <c r="C29" t="s">
         <v>267</v>
@@ -6969,7 +6972,7 @@
         <v>26300</v>
       </c>
       <c r="B30" t="n">
-        <v>146974</v>
+        <v>178334</v>
       </c>
       <c r="C30" t="s">
         <v>273</v>
@@ -7036,7 +7039,7 @@
         <v>26300</v>
       </c>
       <c r="B31" t="n">
-        <v>146975</v>
+        <v>178335</v>
       </c>
       <c r="C31" t="s">
         <v>279</v>
@@ -7178,7 +7181,7 @@
         <v>26300</v>
       </c>
       <c r="B33" t="n">
-        <v>146976</v>
+        <v>178336</v>
       </c>
       <c r="C33" t="s">
         <v>291</v>
@@ -7249,7 +7252,7 @@
         <v>26300</v>
       </c>
       <c r="B34" t="n">
-        <v>146977</v>
+        <v>178337</v>
       </c>
       <c r="C34" t="s">
         <v>296</v>
@@ -7391,7 +7394,7 @@
         <v>26300</v>
       </c>
       <c r="B36" t="n">
-        <v>146978</v>
+        <v>178338</v>
       </c>
       <c r="C36" t="s">
         <v>311</v>
@@ -7537,7 +7540,7 @@
         <v>26300</v>
       </c>
       <c r="B38" t="n">
-        <v>146979</v>
+        <v>178339</v>
       </c>
       <c r="C38" t="s">
         <v>325</v>
@@ -7608,7 +7611,7 @@
         <v>26300</v>
       </c>
       <c r="B39" t="n">
-        <v>146980</v>
+        <v>178340</v>
       </c>
       <c r="C39" t="s">
         <v>332</v>
@@ -7679,7 +7682,7 @@
         <v>26300</v>
       </c>
       <c r="B40" t="n">
-        <v>146981</v>
+        <v>178341</v>
       </c>
       <c r="C40" t="s">
         <v>338</v>
@@ -7750,7 +7753,7 @@
         <v>26300</v>
       </c>
       <c r="B41" t="n">
-        <v>146982</v>
+        <v>178342</v>
       </c>
       <c r="C41" t="s">
         <v>344</v>
@@ -7811,7 +7814,7 @@
         <v>26300</v>
       </c>
       <c r="B42" t="n">
-        <v>146983</v>
+        <v>178343</v>
       </c>
       <c r="C42" t="s">
         <v>351</v>
@@ -7872,7 +7875,7 @@
         <v>26300</v>
       </c>
       <c r="B43" t="n">
-        <v>146984</v>
+        <v>178344</v>
       </c>
       <c r="C43" t="s">
         <v>358</v>
@@ -7939,7 +7942,7 @@
         <v>26300</v>
       </c>
       <c r="B44" t="n">
-        <v>146985</v>
+        <v>178345</v>
       </c>
       <c r="C44" t="s">
         <v>365</v>
@@ -7996,7 +7999,7 @@
         <v>26300</v>
       </c>
       <c r="B45" t="n">
-        <v>146986</v>
+        <v>178346</v>
       </c>
       <c r="C45" t="s">
         <v>371</v>
@@ -8067,7 +8070,7 @@
         <v>26300</v>
       </c>
       <c r="B46" t="n">
-        <v>146987</v>
+        <v>178347</v>
       </c>
       <c r="C46" t="s">
         <v>381</v>
@@ -8195,7 +8198,7 @@
         <v>26300</v>
       </c>
       <c r="B48" t="n">
-        <v>146988</v>
+        <v>178348</v>
       </c>
       <c r="C48" t="s">
         <v>396</v>
@@ -8461,7 +8464,7 @@
         <v>26300</v>
       </c>
       <c r="B52" t="n">
-        <v>146989</v>
+        <v>178349</v>
       </c>
       <c r="C52" t="s">
         <v>431</v>
@@ -8593,7 +8596,7 @@
         <v>26300</v>
       </c>
       <c r="B54" t="n">
-        <v>146990</v>
+        <v>178350</v>
       </c>
       <c r="C54" t="s">
         <v>447</v>
@@ -8654,7 +8657,7 @@
         <v>26300</v>
       </c>
       <c r="B55" t="n">
-        <v>146991</v>
+        <v>178351</v>
       </c>
       <c r="C55" t="s">
         <v>453</v>
@@ -8715,7 +8718,7 @@
         <v>26300</v>
       </c>
       <c r="B56" t="n">
-        <v>146992</v>
+        <v>178352</v>
       </c>
       <c r="C56" t="s">
         <v>459</v>
@@ -8780,7 +8783,7 @@
         <v>26300</v>
       </c>
       <c r="B57" t="n">
-        <v>146993</v>
+        <v>178353</v>
       </c>
       <c r="C57" t="s">
         <v>465</v>
@@ -8847,7 +8850,7 @@
         <v>26300</v>
       </c>
       <c r="B58" t="n">
-        <v>146994</v>
+        <v>178354</v>
       </c>
       <c r="C58" t="s">
         <v>472</v>
@@ -8908,7 +8911,7 @@
         <v>26300</v>
       </c>
       <c r="B59" t="n">
-        <v>146995</v>
+        <v>178355</v>
       </c>
       <c r="C59" t="s">
         <v>478</v>
@@ -8977,7 +8980,7 @@
         <v>26300</v>
       </c>
       <c r="B60" t="n">
-        <v>146996</v>
+        <v>178356</v>
       </c>
       <c r="C60" t="s">
         <v>488</v>
@@ -9048,7 +9051,7 @@
         <v>26300</v>
       </c>
       <c r="B61" t="n">
-        <v>146997</v>
+        <v>178357</v>
       </c>
       <c r="C61" t="s">
         <v>497</v>
@@ -9117,7 +9120,7 @@
         <v>26300</v>
       </c>
       <c r="B62" t="n">
-        <v>146998</v>
+        <v>178358</v>
       </c>
       <c r="C62" t="s">
         <v>506</v>
@@ -9186,7 +9189,7 @@
         <v>26300</v>
       </c>
       <c r="B63" t="n">
-        <v>146999</v>
+        <v>178359</v>
       </c>
       <c r="C63" t="s">
         <v>516</v>
@@ -9251,7 +9254,7 @@
         <v>26300</v>
       </c>
       <c r="B64" t="n">
-        <v>147000</v>
+        <v>178360</v>
       </c>
       <c r="C64" t="s">
         <v>525</v>
@@ -9316,7 +9319,7 @@
         <v>26300</v>
       </c>
       <c r="B65" t="n">
-        <v>147001</v>
+        <v>178361</v>
       </c>
       <c r="C65" t="s">
         <v>531</v>
@@ -9625,7 +9628,7 @@
         <v>26300</v>
       </c>
       <c r="B70" t="n">
-        <v>147002</v>
+        <v>178362</v>
       </c>
       <c r="C70" t="s">
         <v>565</v>
@@ -9686,7 +9689,7 @@
         <v>26300</v>
       </c>
       <c r="B71" t="n">
-        <v>147003</v>
+        <v>178363</v>
       </c>
       <c r="C71" t="s">
         <v>571</v>
@@ -9753,7 +9756,7 @@
         <v>26300</v>
       </c>
       <c r="B72" t="n">
-        <v>147004</v>
+        <v>178364</v>
       </c>
       <c r="C72" t="s">
         <v>578</v>
@@ -9818,7 +9821,7 @@
         <v>26300</v>
       </c>
       <c r="B73" t="n">
-        <v>147005</v>
+        <v>178365</v>
       </c>
       <c r="C73" t="s">
         <v>584</v>
@@ -9883,7 +9886,7 @@
         <v>26300</v>
       </c>
       <c r="B74" t="n">
-        <v>147006</v>
+        <v>178366</v>
       </c>
       <c r="C74" t="s">
         <v>591</v>
@@ -10082,7 +10085,7 @@
         <v>26300</v>
       </c>
       <c r="B77" t="n">
-        <v>147007</v>
+        <v>178367</v>
       </c>
       <c r="C77" t="s">
         <v>618</v>
@@ -10222,7 +10225,7 @@
         <v>26300</v>
       </c>
       <c r="B79" t="n">
-        <v>147008</v>
+        <v>178368</v>
       </c>
       <c r="C79" t="s">
         <v>638</v>
@@ -10287,7 +10290,7 @@
         <v>26300</v>
       </c>
       <c r="B80" t="n">
-        <v>147009</v>
+        <v>178369</v>
       </c>
       <c r="C80" t="s">
         <v>645</v>
@@ -10417,7 +10420,7 @@
         <v>26300</v>
       </c>
       <c r="B82" t="n">
-        <v>147010</v>
+        <v>178370</v>
       </c>
       <c r="C82" t="s">
         <v>664</v>
@@ -10488,7 +10491,7 @@
         <v>26300</v>
       </c>
       <c r="B83" t="n">
-        <v>147011</v>
+        <v>178371</v>
       </c>
       <c r="C83" t="s">
         <v>670</v>
@@ -10559,7 +10562,7 @@
         <v>26300</v>
       </c>
       <c r="B84" t="n">
-        <v>147012</v>
+        <v>178372</v>
       </c>
       <c r="C84" t="s">
         <v>680</v>
@@ -10628,7 +10631,7 @@
         <v>26300</v>
       </c>
       <c r="B85" t="n">
-        <v>147013</v>
+        <v>178373</v>
       </c>
       <c r="C85" t="s">
         <v>686</v>
@@ -10699,7 +10702,7 @@
         <v>26300</v>
       </c>
       <c r="B86" t="n">
-        <v>147014</v>
+        <v>178374</v>
       </c>
       <c r="C86" t="s">
         <v>693</v>
@@ -10760,7 +10763,7 @@
         <v>26300</v>
       </c>
       <c r="B87" t="n">
-        <v>147015</v>
+        <v>178375</v>
       </c>
       <c r="C87" t="s">
         <v>700</v>
@@ -10831,7 +10834,7 @@
         <v>26300</v>
       </c>
       <c r="B88" t="n">
-        <v>147016</v>
+        <v>178376</v>
       </c>
       <c r="C88" t="s">
         <v>709</v>
@@ -10967,7 +10970,7 @@
         <v>26300</v>
       </c>
       <c r="B90" t="n">
-        <v>147017</v>
+        <v>178377</v>
       </c>
       <c r="C90" t="s">
         <v>728</v>
@@ -11038,7 +11041,7 @@
         <v>26300</v>
       </c>
       <c r="B91" t="n">
-        <v>147018</v>
+        <v>178378</v>
       </c>
       <c r="C91" t="s">
         <v>738</v>
@@ -11109,7 +11112,7 @@
         <v>26300</v>
       </c>
       <c r="B92" t="n">
-        <v>147019</v>
+        <v>178379</v>
       </c>
       <c r="C92" t="s">
         <v>744</v>
@@ -11178,7 +11181,7 @@
         <v>26300</v>
       </c>
       <c r="B93" t="n">
-        <v>147020</v>
+        <v>178380</v>
       </c>
       <c r="C93" t="s">
         <v>753</v>
@@ -11249,7 +11252,7 @@
         <v>26300</v>
       </c>
       <c r="B94" t="n">
-        <v>147021</v>
+        <v>178381</v>
       </c>
       <c r="C94" t="s">
         <v>762</v>
@@ -11320,7 +11323,7 @@
         <v>26300</v>
       </c>
       <c r="B95" t="n">
-        <v>147022</v>
+        <v>178382</v>
       </c>
       <c r="C95" t="s">
         <v>772</v>
@@ -11391,7 +11394,7 @@
         <v>26300</v>
       </c>
       <c r="B96" t="n">
-        <v>147023</v>
+        <v>178383</v>
       </c>
       <c r="C96" t="s">
         <v>782</v>
@@ -11456,7 +11459,7 @@
         <v>26300</v>
       </c>
       <c r="B97" t="n">
-        <v>147024</v>
+        <v>178384</v>
       </c>
       <c r="C97" t="s">
         <v>792</v>
@@ -11596,7 +11599,7 @@
         <v>26300</v>
       </c>
       <c r="B99" t="n">
-        <v>147025</v>
+        <v>178385</v>
       </c>
       <c r="C99" t="s">
         <v>811</v>
@@ -11667,7 +11670,7 @@
         <v>26300</v>
       </c>
       <c r="B100" t="n">
-        <v>147026</v>
+        <v>178386</v>
       </c>
       <c r="C100" t="s">
         <v>818</v>
@@ -11736,7 +11739,7 @@
         <v>26300</v>
       </c>
       <c r="B101" t="n">
-        <v>147027</v>
+        <v>178387</v>
       </c>
       <c r="C101" t="s">
         <v>828</v>
@@ -11937,7 +11940,7 @@
         <v>26300</v>
       </c>
       <c r="B104" t="n">
-        <v>147028</v>
+        <v>178388</v>
       </c>
       <c r="C104" t="s">
         <v>856</v>
@@ -12079,7 +12082,7 @@
         <v>26300</v>
       </c>
       <c r="B106" t="n">
-        <v>147029</v>
+        <v>178389</v>
       </c>
       <c r="C106" t="s">
         <v>872</v>
@@ -12150,7 +12153,7 @@
         <v>26300</v>
       </c>
       <c r="B107" t="n">
-        <v>147030</v>
+        <v>178390</v>
       </c>
       <c r="C107" t="s">
         <v>882</v>
@@ -12219,7 +12222,7 @@
         <v>26300</v>
       </c>
       <c r="B108" t="n">
-        <v>147031</v>
+        <v>178391</v>
       </c>
       <c r="C108" t="s">
         <v>891</v>
@@ -12290,7 +12293,7 @@
         <v>26300</v>
       </c>
       <c r="B109" t="n">
-        <v>147032</v>
+        <v>178392</v>
       </c>
       <c r="C109" t="s">
         <v>901</v>
@@ -12361,7 +12364,7 @@
         <v>26300</v>
       </c>
       <c r="B110" t="n">
-        <v>147033</v>
+        <v>178393</v>
       </c>
       <c r="C110" t="s">
         <v>911</v>
@@ -12422,7 +12425,7 @@
         <v>26300</v>
       </c>
       <c r="B111" t="n">
-        <v>147034</v>
+        <v>178394</v>
       </c>
       <c r="C111" t="s">
         <v>920</v>
@@ -12483,7 +12486,7 @@
         <v>26300</v>
       </c>
       <c r="B112" t="n">
-        <v>147035</v>
+        <v>178395</v>
       </c>
       <c r="C112" t="s">
         <v>929</v>
@@ -12617,7 +12620,7 @@
         <v>26300</v>
       </c>
       <c r="B114" t="n">
-        <v>147036</v>
+        <v>178396</v>
       </c>
       <c r="C114" t="s">
         <v>948</v>
@@ -12767,7 +12770,7 @@
         <v>26300</v>
       </c>
       <c r="B116" t="n">
-        <v>147037</v>
+        <v>178397</v>
       </c>
       <c r="C116" t="s">
         <v>965</v>
@@ -12842,7 +12845,7 @@
         <v>26300</v>
       </c>
       <c r="B117" t="n">
-        <v>147038</v>
+        <v>178398</v>
       </c>
       <c r="C117" t="s">
         <v>974</v>
@@ -12984,7 +12987,7 @@
         <v>26300</v>
       </c>
       <c r="B119" t="n">
-        <v>147039</v>
+        <v>178399</v>
       </c>
       <c r="C119" t="s">
         <v>992</v>
@@ -13059,7 +13062,7 @@
         <v>26300</v>
       </c>
       <c r="B120" t="n">
-        <v>147040</v>
+        <v>178400</v>
       </c>
       <c r="C120" t="s">
         <v>1002</v>
@@ -13134,7 +13137,7 @@
         <v>26300</v>
       </c>
       <c r="B121" t="n">
-        <v>147041</v>
+        <v>178401</v>
       </c>
       <c r="C121" t="s">
         <v>1011</v>
@@ -13209,7 +13212,7 @@
         <v>26300</v>
       </c>
       <c r="B122" t="n">
-        <v>147042</v>
+        <v>178402</v>
       </c>
       <c r="C122" t="s">
         <v>1020</v>
@@ -13274,7 +13277,7 @@
         <v>26300</v>
       </c>
       <c r="B123" t="n">
-        <v>147043</v>
+        <v>178403</v>
       </c>
       <c r="C123" t="s">
         <v>1030</v>
@@ -13422,7 +13425,7 @@
         <v>26300</v>
       </c>
       <c r="B125" t="n">
-        <v>147044</v>
+        <v>178404</v>
       </c>
       <c r="C125" t="s">
         <v>1047</v>
@@ -13497,7 +13500,7 @@
         <v>26300</v>
       </c>
       <c r="B126" t="n">
-        <v>147045</v>
+        <v>178405</v>
       </c>
       <c r="C126" t="s">
         <v>1057</v>
@@ -13647,7 +13650,7 @@
         <v>26300</v>
       </c>
       <c r="B128" t="n">
-        <v>147046</v>
+        <v>178406</v>
       </c>
       <c r="C128" t="s">
         <v>1074</v>
@@ -13722,7 +13725,7 @@
         <v>26300</v>
       </c>
       <c r="B129" t="n">
-        <v>147047</v>
+        <v>178407</v>
       </c>
       <c r="C129" t="s">
         <v>1084</v>
@@ -13787,7 +13790,7 @@
         <v>26300</v>
       </c>
       <c r="B130" t="n">
-        <v>147048</v>
+        <v>178408</v>
       </c>
       <c r="C130" t="s">
         <v>1092</v>
@@ -13862,7 +13865,7 @@
         <v>26300</v>
       </c>
       <c r="B131" t="n">
-        <v>147049</v>
+        <v>178409</v>
       </c>
       <c r="C131" t="s">
         <v>1102</v>
@@ -14012,7 +14015,7 @@
         <v>26300</v>
       </c>
       <c r="B133" t="n">
-        <v>147050</v>
+        <v>178410</v>
       </c>
       <c r="C133" t="s">
         <v>1119</v>
@@ -14087,7 +14090,7 @@
         <v>26300</v>
       </c>
       <c r="B134" t="n">
-        <v>147051</v>
+        <v>178411</v>
       </c>
       <c r="C134" t="s">
         <v>1129</v>
@@ -14312,7 +14315,7 @@
         <v>26300</v>
       </c>
       <c r="B137" t="n">
-        <v>147052</v>
+        <v>178412</v>
       </c>
       <c r="C137" t="s">
         <v>1158</v>
@@ -14462,7 +14465,7 @@
         <v>26300</v>
       </c>
       <c r="B139" t="n">
-        <v>147053</v>
+        <v>178413</v>
       </c>
       <c r="C139" t="s">
         <v>1173</v>
@@ -14536,8 +14539,12 @@
       <c r="A140" t="n">
         <v>26300</v>
       </c>
-      <c r="B140" t="s"/>
-      <c r="C140" t="s"/>
+      <c r="B140" t="n">
+        <v>178414</v>
+      </c>
+      <c r="C140" t="s">
+        <v>1182</v>
+      </c>
       <c r="D140" t="n">
         <v>139</v>
       </c>
@@ -14545,7 +14552,7 @@
         <v>45</v>
       </c>
       <c r="F140" t="s">
-        <v>1182</v>
+        <v>1183</v>
       </c>
       <c r="G140" t="s">
         <v>47</v>
@@ -14554,16 +14561,16 @@
         <v>48</v>
       </c>
       <c r="I140" t="s">
-        <v>1183</v>
+        <v>1184</v>
       </c>
       <c r="J140" t="s">
-        <v>1184</v>
+        <v>1185</v>
       </c>
       <c r="K140" t="s">
-        <v>1185</v>
+        <v>1186</v>
       </c>
       <c r="L140" t="s">
-        <v>1186</v>
+        <v>1187</v>
       </c>
       <c r="M140" t="n">
         <v>5</v>
@@ -14590,13 +14597,13 @@
         <v>0</v>
       </c>
       <c r="W140" t="s">
-        <v>1187</v>
+        <v>1188</v>
       </c>
       <c r="X140" t="s">
-        <v>1188</v>
+        <v>1189</v>
       </c>
       <c r="Y140" t="s">
-        <v>1189</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="141">
@@ -14604,10 +14611,10 @@
         <v>26300</v>
       </c>
       <c r="B141" t="n">
-        <v>147054</v>
+        <v>178415</v>
       </c>
       <c r="C141" t="s">
-        <v>1190</v>
+        <v>1191</v>
       </c>
       <c r="D141" t="n">
         <v>140</v>
@@ -14616,7 +14623,7 @@
         <v>45</v>
       </c>
       <c r="F141" t="s">
-        <v>1191</v>
+        <v>1192</v>
       </c>
       <c r="G141" t="s">
         <v>47</v>
@@ -14625,16 +14632,16 @@
         <v>48</v>
       </c>
       <c r="I141" t="s">
-        <v>1192</v>
+        <v>1193</v>
       </c>
       <c r="J141" t="s">
-        <v>1193</v>
+        <v>1194</v>
       </c>
       <c r="K141" t="s">
-        <v>1194</v>
+        <v>1195</v>
       </c>
       <c r="L141" t="s">
-        <v>1195</v>
+        <v>1196</v>
       </c>
       <c r="M141" t="n">
         <v>4</v>
@@ -14665,13 +14672,13 @@
         <v>0</v>
       </c>
       <c r="W141" t="s">
-        <v>1196</v>
+        <v>1197</v>
       </c>
       <c r="X141" t="s">
-        <v>1197</v>
+        <v>1198</v>
       </c>
       <c r="Y141" t="s">
-        <v>1198</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="142">
@@ -14679,10 +14686,10 @@
         <v>26300</v>
       </c>
       <c r="B142" t="n">
-        <v>147055</v>
+        <v>178416</v>
       </c>
       <c r="C142" t="s">
-        <v>1199</v>
+        <v>1200</v>
       </c>
       <c r="D142" t="n">
         <v>141</v>
@@ -14691,7 +14698,7 @@
         <v>45</v>
       </c>
       <c r="F142" t="s">
-        <v>1200</v>
+        <v>1201</v>
       </c>
       <c r="G142" t="s">
         <v>47</v>
@@ -14700,16 +14707,16 @@
         <v>48</v>
       </c>
       <c r="I142" t="s">
-        <v>1201</v>
+        <v>1202</v>
       </c>
       <c r="J142" t="s">
-        <v>1202</v>
+        <v>1203</v>
       </c>
       <c r="K142" t="s">
-        <v>1203</v>
+        <v>1204</v>
       </c>
       <c r="L142" t="s">
-        <v>1204</v>
+        <v>1205</v>
       </c>
       <c r="M142" t="n">
         <v>4</v>
@@ -14736,13 +14743,13 @@
         <v>0</v>
       </c>
       <c r="W142" t="s">
-        <v>1205</v>
+        <v>1206</v>
       </c>
       <c r="X142" t="s">
-        <v>1206</v>
+        <v>1207</v>
       </c>
       <c r="Y142" t="s">
-        <v>1207</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="143">
@@ -14753,7 +14760,7 @@
         <v>8062</v>
       </c>
       <c r="C143" t="s">
-        <v>1208</v>
+        <v>1209</v>
       </c>
       <c r="D143" t="n">
         <v>142</v>
@@ -14762,7 +14769,7 @@
         <v>45</v>
       </c>
       <c r="F143" t="s">
-        <v>1209</v>
+        <v>1210</v>
       </c>
       <c r="G143" t="s">
         <v>47</v>
@@ -14771,16 +14778,16 @@
         <v>48</v>
       </c>
       <c r="I143" t="s">
-        <v>1210</v>
+        <v>1211</v>
       </c>
       <c r="J143" t="s">
-        <v>1211</v>
+        <v>1212</v>
       </c>
       <c r="K143" t="s">
-        <v>1212</v>
+        <v>1213</v>
       </c>
       <c r="L143" t="s">
-        <v>1213</v>
+        <v>1214</v>
       </c>
       <c r="M143" t="n">
         <v>5</v>
@@ -14811,13 +14818,13 @@
         <v>0</v>
       </c>
       <c r="W143" t="s">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="X143" t="s">
-        <v>1215</v>
+        <v>1216</v>
       </c>
       <c r="Y143" t="s">
-        <v>1216</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="144">
@@ -14825,10 +14832,10 @@
         <v>26300</v>
       </c>
       <c r="B144" t="n">
-        <v>147056</v>
+        <v>178417</v>
       </c>
       <c r="C144" t="s">
-        <v>1217</v>
+        <v>1218</v>
       </c>
       <c r="D144" t="n">
         <v>143</v>
@@ -14837,7 +14844,7 @@
         <v>45</v>
       </c>
       <c r="F144" t="s">
-        <v>1218</v>
+        <v>1219</v>
       </c>
       <c r="G144" t="s">
         <v>47</v>
@@ -14846,16 +14853,16 @@
         <v>48</v>
       </c>
       <c r="I144" t="s">
-        <v>1219</v>
+        <v>1220</v>
       </c>
       <c r="J144" t="s">
-        <v>1220</v>
+        <v>1221</v>
       </c>
       <c r="K144" t="s">
-        <v>1221</v>
+        <v>1222</v>
       </c>
       <c r="L144" t="s">
-        <v>1222</v>
+        <v>1223</v>
       </c>
       <c r="M144" t="n">
         <v>5</v>
@@ -14886,13 +14893,13 @@
         <v>0</v>
       </c>
       <c r="W144" t="s">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="X144" t="s">
-        <v>1215</v>
+        <v>1216</v>
       </c>
       <c r="Y144" t="s">
-        <v>1223</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="145">
@@ -14900,10 +14907,10 @@
         <v>26300</v>
       </c>
       <c r="B145" t="n">
-        <v>147057</v>
+        <v>178418</v>
       </c>
       <c r="C145" t="s">
-        <v>1224</v>
+        <v>1225</v>
       </c>
       <c r="D145" t="n">
         <v>144</v>
@@ -14912,7 +14919,7 @@
         <v>45</v>
       </c>
       <c r="F145" t="s">
-        <v>1225</v>
+        <v>1226</v>
       </c>
       <c r="G145" t="s">
         <v>47</v>
@@ -14921,16 +14928,16 @@
         <v>48</v>
       </c>
       <c r="I145" t="s">
-        <v>1226</v>
+        <v>1227</v>
       </c>
       <c r="J145" t="s">
-        <v>1227</v>
+        <v>1228</v>
       </c>
       <c r="K145" t="s">
-        <v>1228</v>
+        <v>1229</v>
       </c>
       <c r="L145" t="s">
-        <v>1229</v>
+        <v>1230</v>
       </c>
       <c r="M145" t="n">
         <v>4</v>
@@ -14957,13 +14964,13 @@
         <v>0</v>
       </c>
       <c r="W145" t="s">
-        <v>1230</v>
+        <v>1231</v>
       </c>
       <c r="X145" t="s">
-        <v>1231</v>
+        <v>1232</v>
       </c>
       <c r="Y145" t="s">
-        <v>1232</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="146">
@@ -14971,10 +14978,10 @@
         <v>26300</v>
       </c>
       <c r="B146" t="n">
-        <v>147058</v>
+        <v>178419</v>
       </c>
       <c r="C146" t="s">
-        <v>1233</v>
+        <v>1234</v>
       </c>
       <c r="D146" t="n">
         <v>145</v>
@@ -14983,7 +14990,7 @@
         <v>45</v>
       </c>
       <c r="F146" t="s">
-        <v>1234</v>
+        <v>1235</v>
       </c>
       <c r="G146" t="s">
         <v>47</v>
@@ -14992,22 +14999,22 @@
         <v>48</v>
       </c>
       <c r="I146" t="s">
-        <v>1235</v>
+        <v>1236</v>
       </c>
       <c r="J146" t="s">
-        <v>1236</v>
+        <v>1237</v>
       </c>
       <c r="K146" t="s">
-        <v>1237</v>
+        <v>1238</v>
       </c>
       <c r="L146" t="s">
-        <v>1238</v>
+        <v>1239</v>
       </c>
       <c r="M146" t="n">
         <v>2</v>
       </c>
       <c r="N146" t="s">
-        <v>1239</v>
+        <v>1240</v>
       </c>
       <c r="O146" t="s">
         <v>74</v>
@@ -15032,13 +15039,13 @@
         <v>0</v>
       </c>
       <c r="W146" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="X146" t="s">
-        <v>1241</v>
+        <v>1242</v>
       </c>
       <c r="Y146" t="s">
-        <v>1242</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="147">
@@ -15046,10 +15053,10 @@
         <v>26300</v>
       </c>
       <c r="B147" t="n">
-        <v>147059</v>
+        <v>178420</v>
       </c>
       <c r="C147" t="s">
-        <v>1243</v>
+        <v>1244</v>
       </c>
       <c r="D147" t="n">
         <v>146</v>
@@ -15058,7 +15065,7 @@
         <v>45</v>
       </c>
       <c r="F147" t="s">
-        <v>1244</v>
+        <v>1245</v>
       </c>
       <c r="G147" t="s">
         <v>47</v>
@@ -15067,22 +15074,22 @@
         <v>48</v>
       </c>
       <c r="I147" t="s">
-        <v>1245</v>
+        <v>1246</v>
       </c>
       <c r="J147" t="s">
-        <v>1246</v>
+        <v>1247</v>
       </c>
       <c r="K147" t="s">
-        <v>1247</v>
+        <v>1248</v>
       </c>
       <c r="L147" t="s">
-        <v>1248</v>
+        <v>1249</v>
       </c>
       <c r="M147" t="n">
         <v>3</v>
       </c>
       <c r="N147" t="s">
-        <v>1249</v>
+        <v>1250</v>
       </c>
       <c r="O147" t="s">
         <v>141</v>
@@ -15107,13 +15114,13 @@
         <v>0</v>
       </c>
       <c r="W147" t="s">
-        <v>1250</v>
+        <v>1251</v>
       </c>
       <c r="X147" t="s">
-        <v>1251</v>
+        <v>1252</v>
       </c>
       <c r="Y147" t="s">
-        <v>1252</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="148">
@@ -15124,7 +15131,7 @@
         <v>86404</v>
       </c>
       <c r="C148" t="s">
-        <v>1253</v>
+        <v>1254</v>
       </c>
       <c r="D148" t="n">
         <v>147</v>
@@ -15133,7 +15140,7 @@
         <v>45</v>
       </c>
       <c r="F148" t="s">
-        <v>1254</v>
+        <v>1255</v>
       </c>
       <c r="G148" t="s">
         <v>47</v>
@@ -15142,22 +15149,22 @@
         <v>48</v>
       </c>
       <c r="I148" t="s">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="J148" t="s">
-        <v>1256</v>
+        <v>1257</v>
       </c>
       <c r="K148" t="s">
-        <v>1257</v>
+        <v>1258</v>
       </c>
       <c r="L148" t="s">
-        <v>1258</v>
+        <v>1259</v>
       </c>
       <c r="M148" t="n">
         <v>3</v>
       </c>
       <c r="N148" t="s">
-        <v>1259</v>
+        <v>1260</v>
       </c>
       <c r="O148" t="s">
         <v>63</v>
@@ -15182,13 +15189,13 @@
         <v>0</v>
       </c>
       <c r="W148" t="s">
-        <v>1260</v>
+        <v>1261</v>
       </c>
       <c r="X148" t="s">
-        <v>1261</v>
+        <v>1262</v>
       </c>
       <c r="Y148" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="149">
@@ -15196,10 +15203,10 @@
         <v>26300</v>
       </c>
       <c r="B149" t="n">
-        <v>147060</v>
+        <v>178421</v>
       </c>
       <c r="C149" t="s">
-        <v>1263</v>
+        <v>1264</v>
       </c>
       <c r="D149" t="n">
         <v>148</v>
@@ -15208,7 +15215,7 @@
         <v>45</v>
       </c>
       <c r="F149" t="s">
-        <v>1264</v>
+        <v>1265</v>
       </c>
       <c r="G149" t="s">
         <v>47</v>
@@ -15217,22 +15224,22 @@
         <v>48</v>
       </c>
       <c r="I149" t="s">
-        <v>1265</v>
+        <v>1266</v>
       </c>
       <c r="J149" t="s">
-        <v>1266</v>
+        <v>1267</v>
       </c>
       <c r="K149" t="s">
-        <v>1267</v>
+        <v>1268</v>
       </c>
       <c r="L149" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="M149" t="n">
         <v>5</v>
       </c>
       <c r="N149" t="s">
-        <v>1249</v>
+        <v>1250</v>
       </c>
       <c r="O149" t="s">
         <v>141</v>
@@ -15255,13 +15262,13 @@
         <v>0</v>
       </c>
       <c r="W149" t="s">
-        <v>1269</v>
+        <v>1270</v>
       </c>
       <c r="X149" t="s">
-        <v>1270</v>
+        <v>1271</v>
       </c>
       <c r="Y149" t="s">
-        <v>1271</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="150">
@@ -15269,10 +15276,10 @@
         <v>26300</v>
       </c>
       <c r="B150" t="n">
-        <v>147061</v>
+        <v>178422</v>
       </c>
       <c r="C150" t="s">
-        <v>1272</v>
+        <v>1273</v>
       </c>
       <c r="D150" t="n">
         <v>149</v>
@@ -15281,7 +15288,7 @@
         <v>45</v>
       </c>
       <c r="F150" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
       <c r="G150" t="s">
         <v>47</v>
@@ -15290,22 +15297,22 @@
         <v>48</v>
       </c>
       <c r="I150" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
       <c r="J150" t="s">
-        <v>1266</v>
+        <v>1267</v>
       </c>
       <c r="K150" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
       <c r="L150" t="s">
-        <v>1276</v>
+        <v>1277</v>
       </c>
       <c r="M150" t="n">
         <v>4</v>
       </c>
       <c r="N150" t="s">
-        <v>1249</v>
+        <v>1250</v>
       </c>
       <c r="O150" t="s">
         <v>141</v>
@@ -15330,13 +15337,13 @@
         <v>0</v>
       </c>
       <c r="W150" t="s">
-        <v>1269</v>
+        <v>1270</v>
       </c>
       <c r="X150" t="s">
-        <v>1270</v>
+        <v>1271</v>
       </c>
       <c r="Y150" t="s">
-        <v>1277</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="151">
@@ -15347,7 +15354,7 @@
         <v>16173</v>
       </c>
       <c r="C151" t="s">
-        <v>1278</v>
+        <v>1279</v>
       </c>
       <c r="D151" t="n">
         <v>150</v>
@@ -15356,7 +15363,7 @@
         <v>45</v>
       </c>
       <c r="F151" t="s">
-        <v>1279</v>
+        <v>1280</v>
       </c>
       <c r="G151" t="s">
         <v>47</v>
@@ -15365,22 +15372,22 @@
         <v>48</v>
       </c>
       <c r="I151" t="s">
-        <v>1280</v>
+        <v>1281</v>
       </c>
       <c r="J151" t="s">
-        <v>1281</v>
+        <v>1282</v>
       </c>
       <c r="K151" t="s">
-        <v>1282</v>
+        <v>1283</v>
       </c>
       <c r="L151" t="s">
-        <v>1283</v>
+        <v>1284</v>
       </c>
       <c r="M151" t="n">
         <v>4</v>
       </c>
       <c r="N151" t="s">
-        <v>1284</v>
+        <v>1285</v>
       </c>
       <c r="O151" t="s">
         <v>63</v>
@@ -15405,13 +15412,13 @@
         <v>0</v>
       </c>
       <c r="W151" t="s">
-        <v>1285</v>
+        <v>1286</v>
       </c>
       <c r="X151" t="s">
-        <v>1286</v>
+        <v>1287</v>
       </c>
       <c r="Y151" t="s">
-        <v>1287</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="152">
@@ -15419,10 +15426,10 @@
         <v>26300</v>
       </c>
       <c r="B152" t="n">
-        <v>147062</v>
+        <v>178423</v>
       </c>
       <c r="C152" t="s">
-        <v>1288</v>
+        <v>1289</v>
       </c>
       <c r="D152" t="n">
         <v>151</v>
@@ -15431,7 +15438,7 @@
         <v>45</v>
       </c>
       <c r="F152" t="s">
-        <v>1289</v>
+        <v>1290</v>
       </c>
       <c r="G152" t="s">
         <v>47</v>
@@ -15440,22 +15447,22 @@
         <v>48</v>
       </c>
       <c r="I152" t="s">
-        <v>1290</v>
+        <v>1291</v>
       </c>
       <c r="J152" t="s">
-        <v>1291</v>
+        <v>1292</v>
       </c>
       <c r="K152" t="s">
-        <v>1292</v>
+        <v>1293</v>
       </c>
       <c r="L152" t="s">
-        <v>1293</v>
+        <v>1294</v>
       </c>
       <c r="M152" t="n">
         <v>3</v>
       </c>
       <c r="N152" t="s">
-        <v>1294</v>
+        <v>1295</v>
       </c>
       <c r="O152" t="s">
         <v>90</v>
@@ -15480,13 +15487,13 @@
         <v>0</v>
       </c>
       <c r="W152" t="s">
-        <v>1295</v>
+        <v>1296</v>
       </c>
       <c r="X152" t="s">
-        <v>1296</v>
+        <v>1297</v>
       </c>
       <c r="Y152" t="s">
-        <v>1297</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="153">
@@ -15494,10 +15501,10 @@
         <v>26300</v>
       </c>
       <c r="B153" t="n">
-        <v>147063</v>
+        <v>178424</v>
       </c>
       <c r="C153" t="s">
-        <v>1298</v>
+        <v>1299</v>
       </c>
       <c r="D153" t="n">
         <v>152</v>
@@ -15506,7 +15513,7 @@
         <v>45</v>
       </c>
       <c r="F153" t="s">
-        <v>1299</v>
+        <v>1300</v>
       </c>
       <c r="G153" t="s">
         <v>47</v>
@@ -15515,22 +15522,22 @@
         <v>48</v>
       </c>
       <c r="I153" t="s">
-        <v>1300</v>
+        <v>1301</v>
       </c>
       <c r="J153" t="s">
-        <v>1301</v>
+        <v>1302</v>
       </c>
       <c r="K153" t="s">
-        <v>1302</v>
+        <v>1303</v>
       </c>
       <c r="L153" t="s">
-        <v>1303</v>
+        <v>1304</v>
       </c>
       <c r="M153" t="n">
         <v>4</v>
       </c>
       <c r="N153" t="s">
-        <v>1304</v>
+        <v>1305</v>
       </c>
       <c r="O153" t="s">
         <v>174</v>
@@ -15557,7 +15564,7 @@
       <c r="W153" t="s"/>
       <c r="X153" t="s"/>
       <c r="Y153" t="s">
-        <v>1303</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="154">
@@ -15565,10 +15572,10 @@
         <v>26300</v>
       </c>
       <c r="B154" t="n">
-        <v>147064</v>
+        <v>178425</v>
       </c>
       <c r="C154" t="s">
-        <v>1305</v>
+        <v>1306</v>
       </c>
       <c r="D154" t="n">
         <v>153</v>
@@ -15577,7 +15584,7 @@
         <v>45</v>
       </c>
       <c r="F154" t="s">
-        <v>1306</v>
+        <v>1307</v>
       </c>
       <c r="G154" t="s">
         <v>47</v>
@@ -15586,22 +15593,22 @@
         <v>48</v>
       </c>
       <c r="I154" t="s">
-        <v>1307</v>
+        <v>1308</v>
       </c>
       <c r="J154" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
       <c r="K154" t="s">
-        <v>1309</v>
+        <v>1310</v>
       </c>
       <c r="L154" t="s">
-        <v>1310</v>
+        <v>1311</v>
       </c>
       <c r="M154" t="n">
         <v>3</v>
       </c>
       <c r="N154" t="s">
-        <v>1304</v>
+        <v>1305</v>
       </c>
       <c r="O154" t="s">
         <v>63</v>
@@ -15628,7 +15635,7 @@
       <c r="W154" t="s"/>
       <c r="X154" t="s"/>
       <c r="Y154" t="s">
-        <v>1311</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="155">
@@ -15636,10 +15643,10 @@
         <v>26300</v>
       </c>
       <c r="B155" t="n">
-        <v>147065</v>
+        <v>178426</v>
       </c>
       <c r="C155" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="D155" t="n">
         <v>154</v>
@@ -15648,7 +15655,7 @@
         <v>45</v>
       </c>
       <c r="F155" t="s">
-        <v>1313</v>
+        <v>1314</v>
       </c>
       <c r="G155" t="s">
         <v>47</v>
@@ -15657,16 +15664,16 @@
         <v>48</v>
       </c>
       <c r="I155" t="s">
-        <v>1314</v>
+        <v>1315</v>
       </c>
       <c r="J155" t="s">
-        <v>1315</v>
+        <v>1316</v>
       </c>
       <c r="K155" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
       <c r="L155" t="s">
-        <v>1317</v>
+        <v>1318</v>
       </c>
       <c r="M155" t="n">
         <v>3</v>
@@ -15695,7 +15702,7 @@
       <c r="W155" t="s"/>
       <c r="X155" t="s"/>
       <c r="Y155" t="s">
-        <v>1318</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="156">
@@ -15703,10 +15710,10 @@
         <v>26300</v>
       </c>
       <c r="B156" t="n">
-        <v>147066</v>
+        <v>178427</v>
       </c>
       <c r="C156" t="s">
-        <v>1319</v>
+        <v>1320</v>
       </c>
       <c r="D156" t="n">
         <v>155</v>
@@ -15715,7 +15722,7 @@
         <v>45</v>
       </c>
       <c r="F156" t="s">
-        <v>1320</v>
+        <v>1321</v>
       </c>
       <c r="G156" t="s">
         <v>47</v>
@@ -15724,22 +15731,22 @@
         <v>48</v>
       </c>
       <c r="I156" t="s">
-        <v>1321</v>
+        <v>1322</v>
       </c>
       <c r="J156" t="s">
-        <v>1322</v>
+        <v>1323</v>
       </c>
       <c r="K156" t="s">
-        <v>1323</v>
+        <v>1324</v>
       </c>
       <c r="L156" t="s">
-        <v>1324</v>
+        <v>1325</v>
       </c>
       <c r="M156" t="n">
         <v>4</v>
       </c>
       <c r="N156" t="s">
-        <v>1284</v>
+        <v>1285</v>
       </c>
       <c r="O156" t="s">
         <v>63</v>
@@ -15764,13 +15771,13 @@
         <v>0</v>
       </c>
       <c r="W156" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
       <c r="X156" t="s">
-        <v>1326</v>
+        <v>1327</v>
       </c>
       <c r="Y156" t="s">
-        <v>1327</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="157">
@@ -15778,10 +15785,10 @@
         <v>26300</v>
       </c>
       <c r="B157" t="n">
-        <v>147067</v>
+        <v>178428</v>
       </c>
       <c r="C157" t="s">
-        <v>1328</v>
+        <v>1329</v>
       </c>
       <c r="D157" t="n">
         <v>156</v>
@@ -15790,7 +15797,7 @@
         <v>45</v>
       </c>
       <c r="F157" t="s">
-        <v>1329</v>
+        <v>1330</v>
       </c>
       <c r="G157" t="s">
         <v>47</v>
@@ -15799,22 +15806,22 @@
         <v>48</v>
       </c>
       <c r="I157" t="s">
-        <v>1330</v>
+        <v>1331</v>
       </c>
       <c r="J157" t="s">
-        <v>1331</v>
+        <v>1332</v>
       </c>
       <c r="K157" t="s">
-        <v>1332</v>
+        <v>1333</v>
       </c>
       <c r="L157" t="s">
-        <v>1333</v>
+        <v>1334</v>
       </c>
       <c r="M157" t="n">
         <v>4</v>
       </c>
       <c r="N157" t="s">
-        <v>1284</v>
+        <v>1285</v>
       </c>
       <c r="O157" t="s">
         <v>174</v>
@@ -15839,13 +15846,13 @@
         <v>0</v>
       </c>
       <c r="W157" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
       <c r="X157" t="s">
-        <v>1326</v>
+        <v>1327</v>
       </c>
       <c r="Y157" t="s">
-        <v>1334</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="158">
@@ -15853,10 +15860,10 @@
         <v>26300</v>
       </c>
       <c r="B158" t="n">
-        <v>147068</v>
+        <v>178429</v>
       </c>
       <c r="C158" t="s">
-        <v>1335</v>
+        <v>1336</v>
       </c>
       <c r="D158" t="n">
         <v>157</v>
@@ -15865,7 +15872,7 @@
         <v>45</v>
       </c>
       <c r="F158" t="s">
-        <v>1336</v>
+        <v>1337</v>
       </c>
       <c r="G158" t="s">
         <v>47</v>
@@ -15874,22 +15881,22 @@
         <v>48</v>
       </c>
       <c r="I158" t="s">
-        <v>1337</v>
+        <v>1338</v>
       </c>
       <c r="J158" t="s">
-        <v>1338</v>
+        <v>1339</v>
       </c>
       <c r="K158" t="s">
-        <v>1339</v>
+        <v>1340</v>
       </c>
       <c r="L158" t="s">
-        <v>1340</v>
+        <v>1341</v>
       </c>
       <c r="M158" t="n">
         <v>3</v>
       </c>
       <c r="N158" t="s">
-        <v>1341</v>
+        <v>1342</v>
       </c>
       <c r="O158" t="s">
         <v>63</v>
@@ -15916,7 +15923,7 @@
       <c r="W158" t="s"/>
       <c r="X158" t="s"/>
       <c r="Y158" t="s">
-        <v>1340</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="159">
@@ -15924,10 +15931,10 @@
         <v>26300</v>
       </c>
       <c r="B159" t="n">
-        <v>147069</v>
+        <v>178430</v>
       </c>
       <c r="C159" t="s">
-        <v>1342</v>
+        <v>1343</v>
       </c>
       <c r="D159" t="n">
         <v>158</v>
@@ -15936,7 +15943,7 @@
         <v>45</v>
       </c>
       <c r="F159" t="s">
-        <v>1343</v>
+        <v>1344</v>
       </c>
       <c r="G159" t="s">
         <v>47</v>
@@ -15945,22 +15952,22 @@
         <v>48</v>
       </c>
       <c r="I159" t="s">
-        <v>1344</v>
+        <v>1345</v>
       </c>
       <c r="J159" t="s">
-        <v>1338</v>
+        <v>1339</v>
       </c>
       <c r="K159" t="s">
-        <v>1345</v>
+        <v>1346</v>
       </c>
       <c r="L159" t="s">
-        <v>1346</v>
+        <v>1347</v>
       </c>
       <c r="M159" t="n">
         <v>5</v>
       </c>
       <c r="N159" t="s">
-        <v>1341</v>
+        <v>1342</v>
       </c>
       <c r="O159" t="s">
         <v>141</v>
@@ -15987,7 +15994,7 @@
       <c r="W159" t="s"/>
       <c r="X159" t="s"/>
       <c r="Y159" t="s">
-        <v>1346</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="160">
@@ -15995,10 +16002,10 @@
         <v>26300</v>
       </c>
       <c r="B160" t="n">
-        <v>147070</v>
+        <v>178431</v>
       </c>
       <c r="C160" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="D160" t="n">
         <v>159</v>
@@ -16007,7 +16014,7 @@
         <v>45</v>
       </c>
       <c r="F160" t="s">
-        <v>1348</v>
+        <v>1349</v>
       </c>
       <c r="G160" t="s">
         <v>47</v>
@@ -16016,22 +16023,22 @@
         <v>48</v>
       </c>
       <c r="I160" t="s">
-        <v>1349</v>
+        <v>1350</v>
       </c>
       <c r="J160" t="s">
-        <v>1350</v>
+        <v>1351</v>
       </c>
       <c r="K160" t="s">
-        <v>1351</v>
+        <v>1352</v>
       </c>
       <c r="L160" t="s">
-        <v>1352</v>
+        <v>1353</v>
       </c>
       <c r="M160" t="n">
         <v>4</v>
       </c>
       <c r="N160" t="s">
-        <v>1353</v>
+        <v>1354</v>
       </c>
       <c r="O160" t="s">
         <v>63</v>
@@ -16058,7 +16065,7 @@
       <c r="W160" t="s"/>
       <c r="X160" t="s"/>
       <c r="Y160" t="s">
-        <v>1354</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="161">
@@ -16066,19 +16073,19 @@
         <v>26300</v>
       </c>
       <c r="B161" t="n">
-        <v>147071</v>
+        <v>12306</v>
       </c>
       <c r="C161" t="s">
-        <v>1355</v>
+        <v>1356</v>
       </c>
       <c r="D161" t="n">
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>1356</v>
+        <v>1357</v>
       </c>
       <c r="F161" t="s">
-        <v>1357</v>
+        <v>1358</v>
       </c>
       <c r="G161" t="s">
         <v>47</v>
@@ -16087,22 +16094,22 @@
         <v>48</v>
       </c>
       <c r="I161" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="J161" t="s">
-        <v>1359</v>
+        <v>1360</v>
       </c>
       <c r="K161" t="s">
-        <v>1360</v>
+        <v>1361</v>
       </c>
       <c r="L161" t="s">
-        <v>1361</v>
+        <v>1362</v>
       </c>
       <c r="M161" t="n">
         <v>4</v>
       </c>
       <c r="N161" t="s">
-        <v>1362</v>
+        <v>1363</v>
       </c>
       <c r="O161" t="s">
         <v>174</v>
@@ -16125,7 +16132,7 @@
       <c r="W161" t="s"/>
       <c r="X161" t="s"/>
       <c r="Y161" t="s">
-        <v>1361</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="162">
@@ -16133,19 +16140,19 @@
         <v>26300</v>
       </c>
       <c r="B162" t="n">
-        <v>147072</v>
+        <v>178432</v>
       </c>
       <c r="C162" t="s">
-        <v>1363</v>
+        <v>1364</v>
       </c>
       <c r="D162" t="n">
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>1356</v>
+        <v>1357</v>
       </c>
       <c r="F162" t="s">
-        <v>1364</v>
+        <v>1365</v>
       </c>
       <c r="G162" t="s">
         <v>47</v>
@@ -16154,22 +16161,22 @@
         <v>48</v>
       </c>
       <c r="I162" t="s">
-        <v>1365</v>
+        <v>1366</v>
       </c>
       <c r="J162" t="s">
-        <v>1366</v>
+        <v>1367</v>
       </c>
       <c r="K162" t="s">
-        <v>1367</v>
+        <v>1368</v>
       </c>
       <c r="L162" t="s">
-        <v>1368</v>
+        <v>1369</v>
       </c>
       <c r="M162" t="n">
         <v>1</v>
       </c>
       <c r="N162" t="s">
-        <v>1369</v>
+        <v>1370</v>
       </c>
       <c r="O162" t="s">
         <v>63</v>
@@ -16196,7 +16203,7 @@
       <c r="W162" t="s"/>
       <c r="X162" t="s"/>
       <c r="Y162" t="s">
-        <v>1370</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="163">
@@ -16204,19 +16211,19 @@
         <v>26300</v>
       </c>
       <c r="B163" t="n">
-        <v>147073</v>
+        <v>178433</v>
       </c>
       <c r="C163" t="s">
-        <v>1371</v>
+        <v>1372</v>
       </c>
       <c r="D163" t="n">
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>1356</v>
+        <v>1357</v>
       </c>
       <c r="F163" t="s">
-        <v>1372</v>
+        <v>1373</v>
       </c>
       <c r="G163" t="s">
         <v>47</v>
@@ -16225,16 +16232,16 @@
         <v>48</v>
       </c>
       <c r="I163" t="s">
-        <v>1373</v>
+        <v>1374</v>
       </c>
       <c r="J163" t="s">
-        <v>1374</v>
+        <v>1375</v>
       </c>
       <c r="K163" t="s">
-        <v>1375</v>
+        <v>1376</v>
       </c>
       <c r="L163" t="s">
-        <v>1376</v>
+        <v>1377</v>
       </c>
       <c r="M163" t="n">
         <v>1</v>
@@ -16263,7 +16270,7 @@
       <c r="W163" t="s"/>
       <c r="X163" t="s"/>
       <c r="Y163" t="s">
-        <v>1376</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="164">
@@ -16271,19 +16278,19 @@
         <v>26300</v>
       </c>
       <c r="B164" t="n">
-        <v>147074</v>
+        <v>178434</v>
       </c>
       <c r="C164" t="s">
-        <v>1377</v>
+        <v>1378</v>
       </c>
       <c r="D164" t="n">
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>1356</v>
+        <v>1357</v>
       </c>
       <c r="F164" t="s">
-        <v>1378</v>
+        <v>1379</v>
       </c>
       <c r="G164" t="s">
         <v>47</v>
@@ -16292,22 +16299,22 @@
         <v>48</v>
       </c>
       <c r="I164" t="s">
-        <v>1379</v>
+        <v>1380</v>
       </c>
       <c r="J164" t="s">
-        <v>1380</v>
+        <v>1381</v>
       </c>
       <c r="K164" t="s">
-        <v>1381</v>
+        <v>1382</v>
       </c>
       <c r="L164" t="s">
-        <v>1382</v>
+        <v>1383</v>
       </c>
       <c r="M164" t="n">
         <v>2</v>
       </c>
       <c r="N164" t="s">
-        <v>1383</v>
+        <v>1384</v>
       </c>
       <c r="O164" t="s">
         <v>63</v>
@@ -16332,7 +16339,7 @@
       <c r="W164" t="s"/>
       <c r="X164" t="s"/>
       <c r="Y164" t="s">
-        <v>1384</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="165">
@@ -16340,19 +16347,19 @@
         <v>26300</v>
       </c>
       <c r="B165" t="n">
-        <v>147075</v>
+        <v>178435</v>
       </c>
       <c r="C165" t="s">
-        <v>1385</v>
+        <v>1386</v>
       </c>
       <c r="D165" t="n">
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>1356</v>
+        <v>1357</v>
       </c>
       <c r="F165" t="s">
-        <v>1386</v>
+        <v>1387</v>
       </c>
       <c r="G165" t="s">
         <v>47</v>
@@ -16361,22 +16368,22 @@
         <v>48</v>
       </c>
       <c r="I165" t="s">
-        <v>1387</v>
+        <v>1388</v>
       </c>
       <c r="J165" t="s">
-        <v>1388</v>
+        <v>1389</v>
       </c>
       <c r="K165" t="s">
-        <v>1389</v>
+        <v>1390</v>
       </c>
       <c r="L165" t="s">
-        <v>1390</v>
+        <v>1391</v>
       </c>
       <c r="M165" t="n">
         <v>3</v>
       </c>
       <c r="N165" t="s">
-        <v>1391</v>
+        <v>1392</v>
       </c>
       <c r="O165" t="s">
         <v>63</v>
@@ -16403,7 +16410,7 @@
       <c r="W165" t="s"/>
       <c r="X165" t="s"/>
       <c r="Y165" t="s">
-        <v>1392</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="166">
@@ -16411,19 +16418,19 @@
         <v>26300</v>
       </c>
       <c r="B166" t="n">
-        <v>147076</v>
+        <v>178436</v>
       </c>
       <c r="C166" t="s">
-        <v>1393</v>
+        <v>1394</v>
       </c>
       <c r="D166" t="n">
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>1356</v>
+        <v>1357</v>
       </c>
       <c r="F166" t="s">
-        <v>1394</v>
+        <v>1395</v>
       </c>
       <c r="G166" t="s">
         <v>47</v>
@@ -16432,22 +16439,22 @@
         <v>48</v>
       </c>
       <c r="I166" t="s">
-        <v>1395</v>
+        <v>1396</v>
       </c>
       <c r="J166" t="s">
-        <v>1396</v>
+        <v>1397</v>
       </c>
       <c r="K166" t="s">
-        <v>1397</v>
+        <v>1398</v>
       </c>
       <c r="L166" t="s">
-        <v>1398</v>
+        <v>1399</v>
       </c>
       <c r="M166" t="n">
         <v>5</v>
       </c>
       <c r="N166" t="s">
-        <v>1391</v>
+        <v>1392</v>
       </c>
       <c r="O166" t="s">
         <v>63</v>
@@ -16474,7 +16481,7 @@
       <c r="W166" t="s"/>
       <c r="X166" t="s"/>
       <c r="Y166" t="s">
-        <v>1399</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="167">
@@ -16482,19 +16489,19 @@
         <v>26300</v>
       </c>
       <c r="B167" t="n">
-        <v>147077</v>
+        <v>178437</v>
       </c>
       <c r="C167" t="s">
-        <v>1400</v>
+        <v>1401</v>
       </c>
       <c r="D167" t="n">
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>1356</v>
+        <v>1357</v>
       </c>
       <c r="F167" t="s">
-        <v>1401</v>
+        <v>1402</v>
       </c>
       <c r="G167" t="s">
         <v>47</v>
@@ -16503,22 +16510,22 @@
         <v>48</v>
       </c>
       <c r="I167" t="s">
-        <v>1402</v>
+        <v>1403</v>
       </c>
       <c r="J167" t="s">
-        <v>1403</v>
+        <v>1404</v>
       </c>
       <c r="K167" t="s">
-        <v>1404</v>
+        <v>1405</v>
       </c>
       <c r="L167" t="s">
-        <v>1405</v>
+        <v>1406</v>
       </c>
       <c r="M167" t="n">
         <v>2</v>
       </c>
       <c r="N167" t="s">
-        <v>1406</v>
+        <v>1407</v>
       </c>
       <c r="O167" t="s">
         <v>63</v>
@@ -16545,7 +16552,7 @@
       <c r="W167" t="s"/>
       <c r="X167" t="s"/>
       <c r="Y167" t="s">
-        <v>1407</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="168">
@@ -16553,19 +16560,19 @@
         <v>26300</v>
       </c>
       <c r="B168" t="n">
-        <v>147078</v>
+        <v>178438</v>
       </c>
       <c r="C168" t="s">
-        <v>1408</v>
+        <v>1409</v>
       </c>
       <c r="D168" t="n">
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>1356</v>
+        <v>1357</v>
       </c>
       <c r="F168" t="s">
-        <v>1409</v>
+        <v>1410</v>
       </c>
       <c r="G168" t="s">
         <v>47</v>
@@ -16574,22 +16581,22 @@
         <v>48</v>
       </c>
       <c r="I168" t="s">
-        <v>1410</v>
+        <v>1411</v>
       </c>
       <c r="J168" t="s">
-        <v>1411</v>
+        <v>1412</v>
       </c>
       <c r="K168" t="s">
-        <v>1412</v>
+        <v>1413</v>
       </c>
       <c r="L168" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="M168" t="n">
         <v>5</v>
       </c>
       <c r="N168" t="s">
-        <v>1414</v>
+        <v>1415</v>
       </c>
       <c r="O168" t="s">
         <v>74</v>
@@ -16616,7 +16623,7 @@
       <c r="W168" t="s"/>
       <c r="X168" t="s"/>
       <c r="Y168" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="169">
@@ -16624,19 +16631,19 @@
         <v>26300</v>
       </c>
       <c r="B169" t="n">
-        <v>147079</v>
+        <v>178439</v>
       </c>
       <c r="C169" t="s">
-        <v>1415</v>
+        <v>1416</v>
       </c>
       <c r="D169" t="n">
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>1356</v>
+        <v>1357</v>
       </c>
       <c r="F169" t="s">
-        <v>1416</v>
+        <v>1417</v>
       </c>
       <c r="G169" t="s">
         <v>47</v>
@@ -16645,22 +16652,22 @@
         <v>48</v>
       </c>
       <c r="I169" t="s">
-        <v>1417</v>
+        <v>1418</v>
       </c>
       <c r="J169" t="s">
-        <v>1418</v>
+        <v>1419</v>
       </c>
       <c r="K169" t="s">
-        <v>1419</v>
+        <v>1420</v>
       </c>
       <c r="L169" t="s">
-        <v>1420</v>
+        <v>1421</v>
       </c>
       <c r="M169" t="n">
         <v>5</v>
       </c>
       <c r="N169" t="s">
-        <v>1421</v>
+        <v>1422</v>
       </c>
       <c r="O169" t="s">
         <v>63</v>
@@ -16687,7 +16694,7 @@
       <c r="W169" t="s"/>
       <c r="X169" t="s"/>
       <c r="Y169" t="s">
-        <v>1422</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="170">
@@ -16695,19 +16702,19 @@
         <v>26300</v>
       </c>
       <c r="B170" t="n">
-        <v>147080</v>
+        <v>178440</v>
       </c>
       <c r="C170" t="s">
-        <v>1423</v>
+        <v>1424</v>
       </c>
       <c r="D170" t="n">
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>1356</v>
+        <v>1357</v>
       </c>
       <c r="F170" t="s">
-        <v>1424</v>
+        <v>1425</v>
       </c>
       <c r="G170" t="s">
         <v>47</v>
@@ -16716,22 +16723,22 @@
         <v>48</v>
       </c>
       <c r="I170" t="s">
-        <v>1425</v>
+        <v>1426</v>
       </c>
       <c r="J170" t="s">
-        <v>1426</v>
+        <v>1427</v>
       </c>
       <c r="K170" t="s">
-        <v>1427</v>
+        <v>1428</v>
       </c>
       <c r="L170" t="s">
-        <v>1428</v>
+        <v>1429</v>
       </c>
       <c r="M170" t="n">
         <v>1</v>
       </c>
       <c r="N170" t="s">
-        <v>1429</v>
+        <v>1430</v>
       </c>
       <c r="O170" t="s">
         <v>63</v>
@@ -16758,7 +16765,7 @@
       <c r="W170" t="s"/>
       <c r="X170" t="s"/>
       <c r="Y170" t="s">
-        <v>1430</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="171">
@@ -16766,19 +16773,19 @@
         <v>26300</v>
       </c>
       <c r="B171" t="n">
-        <v>147081</v>
+        <v>178441</v>
       </c>
       <c r="C171" t="s">
-        <v>1431</v>
+        <v>1432</v>
       </c>
       <c r="D171" t="n">
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>1356</v>
+        <v>1357</v>
       </c>
       <c r="F171" t="s">
-        <v>1432</v>
+        <v>1433</v>
       </c>
       <c r="G171" t="s">
         <v>47</v>
@@ -16787,22 +16794,22 @@
         <v>48</v>
       </c>
       <c r="I171" t="s">
-        <v>1433</v>
+        <v>1434</v>
       </c>
       <c r="J171" t="s">
-        <v>1434</v>
+        <v>1435</v>
       </c>
       <c r="K171" t="s">
-        <v>1435</v>
+        <v>1436</v>
       </c>
       <c r="L171" t="s">
-        <v>1436</v>
+        <v>1437</v>
       </c>
       <c r="M171" t="n">
         <v>3</v>
       </c>
       <c r="N171" t="s">
-        <v>1437</v>
+        <v>1438</v>
       </c>
       <c r="O171" t="s">
         <v>141</v>
@@ -16829,7 +16836,7 @@
       <c r="W171" t="s"/>
       <c r="X171" t="s"/>
       <c r="Y171" t="s">
-        <v>1438</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="172">
@@ -16837,19 +16844,19 @@
         <v>26300</v>
       </c>
       <c r="B172" t="n">
-        <v>147082</v>
+        <v>178442</v>
       </c>
       <c r="C172" t="s">
-        <v>1439</v>
+        <v>1440</v>
       </c>
       <c r="D172" t="n">
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>1356</v>
+        <v>1357</v>
       </c>
       <c r="F172" t="s">
-        <v>1440</v>
+        <v>1441</v>
       </c>
       <c r="G172" t="s">
         <v>47</v>
@@ -16858,22 +16865,22 @@
         <v>48</v>
       </c>
       <c r="I172" t="s">
-        <v>1441</v>
+        <v>1442</v>
       </c>
       <c r="J172" t="s">
-        <v>1442</v>
+        <v>1443</v>
       </c>
       <c r="K172" t="s">
-        <v>1443</v>
+        <v>1444</v>
       </c>
       <c r="L172" t="s">
-        <v>1444</v>
+        <v>1445</v>
       </c>
       <c r="M172" t="n">
         <v>5</v>
       </c>
       <c r="N172" t="s">
-        <v>1445</v>
+        <v>1446</v>
       </c>
       <c r="O172" t="s">
         <v>141</v>
@@ -16900,7 +16907,7 @@
       <c r="W172" t="s"/>
       <c r="X172" t="s"/>
       <c r="Y172" t="s">
-        <v>1444</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="173">
@@ -16908,19 +16915,19 @@
         <v>26300</v>
       </c>
       <c r="B173" t="n">
-        <v>147083</v>
+        <v>178443</v>
       </c>
       <c r="C173" t="s">
-        <v>1446</v>
+        <v>1447</v>
       </c>
       <c r="D173" t="n">
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>1356</v>
+        <v>1357</v>
       </c>
       <c r="F173" t="s">
-        <v>1447</v>
+        <v>1448</v>
       </c>
       <c r="G173" t="s">
         <v>47</v>
@@ -16929,16 +16936,16 @@
         <v>48</v>
       </c>
       <c r="I173" t="s">
-        <v>1448</v>
+        <v>1449</v>
       </c>
       <c r="J173" t="s">
-        <v>1449</v>
+        <v>1450</v>
       </c>
       <c r="K173" t="s">
-        <v>1450</v>
+        <v>1451</v>
       </c>
       <c r="L173" t="s">
-        <v>1451</v>
+        <v>1452</v>
       </c>
       <c r="M173" t="n">
         <v>2</v>
@@ -16965,7 +16972,7 @@
       <c r="W173" t="s"/>
       <c r="X173" t="s"/>
       <c r="Y173" t="s">
-        <v>1452</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="174">
@@ -16973,19 +16980,19 @@
         <v>26300</v>
       </c>
       <c r="B174" t="n">
-        <v>147084</v>
+        <v>178444</v>
       </c>
       <c r="C174" t="s">
-        <v>1453</v>
+        <v>1454</v>
       </c>
       <c r="D174" t="n">
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>1356</v>
+        <v>1357</v>
       </c>
       <c r="F174" t="s">
-        <v>1454</v>
+        <v>1455</v>
       </c>
       <c r="G174" t="s">
         <v>47</v>
@@ -16994,22 +17001,22 @@
         <v>48</v>
       </c>
       <c r="I174" t="s">
-        <v>1455</v>
+        <v>1456</v>
       </c>
       <c r="J174" t="s">
-        <v>1456</v>
+        <v>1457</v>
       </c>
       <c r="K174" t="s">
-        <v>1457</v>
+        <v>1458</v>
       </c>
       <c r="L174" t="s">
-        <v>1458</v>
+        <v>1459</v>
       </c>
       <c r="M174" t="n">
         <v>5</v>
       </c>
       <c r="N174" t="s">
-        <v>1459</v>
+        <v>1460</v>
       </c>
       <c r="O174" t="s">
         <v>74</v>
@@ -17034,7 +17041,7 @@
       <c r="W174" t="s"/>
       <c r="X174" t="s"/>
       <c r="Y174" t="s">
-        <v>1458</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="175">
@@ -17042,19 +17049,19 @@
         <v>26300</v>
       </c>
       <c r="B175" t="n">
-        <v>147085</v>
+        <v>178445</v>
       </c>
       <c r="C175" t="s">
-        <v>1460</v>
+        <v>1461</v>
       </c>
       <c r="D175" t="n">
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>1356</v>
+        <v>1357</v>
       </c>
       <c r="F175" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
       <c r="G175" t="s">
         <v>47</v>
@@ -17063,16 +17070,16 @@
         <v>48</v>
       </c>
       <c r="I175" t="s">
-        <v>1462</v>
+        <v>1463</v>
       </c>
       <c r="J175" t="s">
-        <v>1463</v>
+        <v>1464</v>
       </c>
       <c r="K175" t="s">
-        <v>1464</v>
+        <v>1465</v>
       </c>
       <c r="L175" t="s">
-        <v>1465</v>
+        <v>1466</v>
       </c>
       <c r="M175" t="n">
         <v>2</v>
@@ -17099,7 +17106,7 @@
       <c r="W175" t="s"/>
       <c r="X175" t="s"/>
       <c r="Y175" t="s">
-        <v>1466</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="176">
@@ -17107,19 +17114,19 @@
         <v>26300</v>
       </c>
       <c r="B176" t="n">
-        <v>147086</v>
+        <v>178446</v>
       </c>
       <c r="C176" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="D176" t="n">
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>1356</v>
+        <v>1357</v>
       </c>
       <c r="F176" t="s">
-        <v>1468</v>
+        <v>1469</v>
       </c>
       <c r="G176" t="s">
         <v>47</v>
@@ -17128,16 +17135,16 @@
         <v>48</v>
       </c>
       <c r="I176" t="s">
-        <v>1469</v>
+        <v>1470</v>
       </c>
       <c r="J176" t="s">
-        <v>1470</v>
+        <v>1471</v>
       </c>
       <c r="K176" t="s">
-        <v>1471</v>
+        <v>1472</v>
       </c>
       <c r="L176" t="s">
-        <v>1472</v>
+        <v>1473</v>
       </c>
       <c r="M176" t="n">
         <v>3</v>
@@ -17164,7 +17171,7 @@
       <c r="W176" t="s"/>
       <c r="X176" t="s"/>
       <c r="Y176" t="s">
-        <v>1473</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="177">
@@ -17172,19 +17179,19 @@
         <v>26300</v>
       </c>
       <c r="B177" t="n">
-        <v>147087</v>
+        <v>178447</v>
       </c>
       <c r="C177" t="s">
-        <v>1474</v>
+        <v>1475</v>
       </c>
       <c r="D177" t="n">
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>1356</v>
+        <v>1357</v>
       </c>
       <c r="F177" t="s">
-        <v>1475</v>
+        <v>1476</v>
       </c>
       <c r="G177" t="s">
         <v>47</v>
@@ -17193,16 +17200,16 @@
         <v>48</v>
       </c>
       <c r="I177" t="s">
-        <v>1476</v>
+        <v>1477</v>
       </c>
       <c r="J177" t="s">
-        <v>1477</v>
+        <v>1478</v>
       </c>
       <c r="K177" t="s">
-        <v>1478</v>
+        <v>1479</v>
       </c>
       <c r="L177" t="s">
-        <v>1479</v>
+        <v>1480</v>
       </c>
       <c r="M177" t="n">
         <v>1</v>
@@ -17221,7 +17228,7 @@
       <c r="W177" t="s"/>
       <c r="X177" t="s"/>
       <c r="Y177" t="s">
-        <v>1480</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="178">
@@ -17232,16 +17239,16 @@
         <v>7</v>
       </c>
       <c r="C178" t="s">
-        <v>1481</v>
+        <v>1482</v>
       </c>
       <c r="D178" t="n">
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>1356</v>
+        <v>1357</v>
       </c>
       <c r="F178" t="s">
-        <v>1482</v>
+        <v>1483</v>
       </c>
       <c r="G178" t="s">
         <v>47</v>
@@ -17250,16 +17257,16 @@
         <v>48</v>
       </c>
       <c r="I178" t="s">
-        <v>1483</v>
+        <v>1484</v>
       </c>
       <c r="J178" t="s">
-        <v>1484</v>
+        <v>1485</v>
       </c>
       <c r="K178" t="s">
-        <v>1485</v>
+        <v>1486</v>
       </c>
       <c r="L178" t="s">
-        <v>1486</v>
+        <v>1487</v>
       </c>
       <c r="M178" t="n">
         <v>1</v>
@@ -17286,7 +17293,7 @@
       <c r="W178" t="s"/>
       <c r="X178" t="s"/>
       <c r="Y178" t="s">
-        <v>1487</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="179">
@@ -17294,19 +17301,19 @@
         <v>26300</v>
       </c>
       <c r="B179" t="n">
-        <v>147088</v>
+        <v>178448</v>
       </c>
       <c r="C179" t="s">
-        <v>1488</v>
+        <v>1489</v>
       </c>
       <c r="D179" t="n">
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>1356</v>
+        <v>1357</v>
       </c>
       <c r="F179" t="s">
-        <v>1489</v>
+        <v>1490</v>
       </c>
       <c r="G179" t="s">
         <v>47</v>
@@ -17315,16 +17322,16 @@
         <v>48</v>
       </c>
       <c r="I179" t="s">
-        <v>1490</v>
+        <v>1491</v>
       </c>
       <c r="J179" t="s">
-        <v>1491</v>
+        <v>1492</v>
       </c>
       <c r="K179" t="s">
-        <v>1492</v>
+        <v>1493</v>
       </c>
       <c r="L179" t="s">
-        <v>1493</v>
+        <v>1494</v>
       </c>
       <c r="M179" t="n">
         <v>4</v>
@@ -17343,7 +17350,7 @@
       <c r="W179" t="s"/>
       <c r="X179" t="s"/>
       <c r="Y179" t="s">
-        <v>1493</v>
+        <v>1494</v>
       </c>
     </row>
   </sheetData>
